--- a/foaie_parcurs_B-151-VGT_februarie_2022_Alex_Bora.xlsx
+++ b/foaie_parcurs_B-151-VGT_februarie_2022_Alex_Bora.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>VOLVO ROMÂNIA</t>
   </si>
@@ -70,37 +70,40 @@
     <t>Observatii utilizator</t>
   </si>
   <si>
+    <t>Cluj-Zalau</t>
+  </si>
+  <si>
+    <t>Interes Serviciu</t>
+  </si>
+  <si>
+    <t>Cluj-Bontida</t>
+  </si>
+  <si>
+    <t>Cluj-Satu-Mare</t>
+  </si>
+  <si>
     <t>Acasa-Birou</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>Cluj-Apahida</t>
+  </si>
+  <si>
+    <t>Cluj-Baia-Mare</t>
+  </si>
+  <si>
+    <t>Cluj-Dej</t>
+  </si>
+  <si>
+    <t>Cluj-Cmp. Turzii</t>
+  </si>
+  <si>
     <t>Cluj-Turda</t>
   </si>
   <si>
-    <t>Interes Serviciu</t>
-  </si>
-  <si>
-    <t>Cluj-Apahida</t>
-  </si>
-  <si>
-    <t>Cluj-Bontida</t>
-  </si>
-  <si>
-    <t>Cluj-Baia-Mare</t>
-  </si>
-  <si>
-    <t>Cluj-Cmp. Turzii</t>
-  </si>
-  <si>
-    <t>Cluj-Bistrita</t>
-  </si>
-  <si>
-    <t>Cluj-Zalau</t>
-  </si>
-  <si>
-    <t>Cluj-Satu-Mare</t>
+    <t>Cluj-Cluj</t>
   </si>
   <si>
     <t>Km parcursi:</t>
@@ -635,7 +638,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>82179</v>
+        <v>79492</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -657,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="4">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>17</v>
@@ -671,13 +674,13 @@
         <v>2</v>
       </c>
       <c r="B17" s="4">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -685,10 +688,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="4">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>18</v>
@@ -702,10 +705,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -732,10 +735,10 @@
         <v>30</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -746,10 +749,10 @@
         <v>85</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -760,10 +763,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -771,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="B33" s="4">
-        <v>92</v>
+        <v>356</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -785,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B35" s="4">
-        <v>356</v>
+        <v>101</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -815,13 +818,13 @@
         <v>14</v>
       </c>
       <c r="B41" s="4">
-        <v>356</v>
+        <v>30</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -832,10 +835,10 @@
         <v>152</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -843,13 +846,13 @@
         <v>16</v>
       </c>
       <c r="B45" s="4">
-        <v>257</v>
+        <v>121</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -860,10 +863,10 @@
         <v>356</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -871,13 +874,13 @@
         <v>18</v>
       </c>
       <c r="B49" s="4">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -901,13 +904,13 @@
         <v>21</v>
       </c>
       <c r="B55" s="4">
-        <v>356</v>
+        <v>30</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -915,13 +918,13 @@
         <v>22</v>
       </c>
       <c r="B57" s="4">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -929,13 +932,13 @@
         <v>23</v>
       </c>
       <c r="B59" s="4">
-        <v>356</v>
+        <v>30</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -943,13 +946,13 @@
         <v>24</v>
       </c>
       <c r="B61" s="4">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -960,10 +963,10 @@
         <v>421</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -987,59 +990,59 @@
         <v>28</v>
       </c>
       <c r="B69" s="4">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B70" s="5">
-        <v>3639</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B71" s="5">
-        <v>85818</v>
+        <v>82192</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
       <c r="A75" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
       <c r="A76" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
       <c r="A77" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
       <c r="A79" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="20" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="20" customHeight="1">
       <c r="A83" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/foaie_parcurs_B-151-VGT_februarie_2022_Alex_Bora.xlsx
+++ b/foaie_parcurs_B-151-VGT_februarie_2022_Alex_Bora.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>VOLVO ROMÂNIA</t>
   </si>
@@ -70,40 +70,34 @@
     <t>Observatii utilizator</t>
   </si>
   <si>
-    <t>Cluj-Zalau</t>
+    <t>Acasa-Birou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Cluj-Apahida</t>
   </si>
   <si>
     <t>Interes Serviciu</t>
   </si>
   <si>
-    <t>Cluj-Bontida</t>
-  </si>
-  <si>
-    <t>Cluj-Satu-Mare</t>
-  </si>
-  <si>
-    <t>Acasa-Birou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Cluj-Apahida</t>
+    <t>Cluj-Dej</t>
   </si>
   <si>
     <t>Cluj-Baia-Mare</t>
   </si>
   <si>
-    <t>Cluj-Dej</t>
-  </si>
-  <si>
     <t>Cluj-Cmp. Turzii</t>
   </si>
   <si>
+    <t>Cluj-Cluj</t>
+  </si>
+  <si>
     <t>Cluj-Turda</t>
   </si>
   <si>
-    <t>Cluj-Cluj</t>
+    <t>Cluj-Bistrita</t>
   </si>
   <si>
     <t>Km parcursi:</t>
@@ -660,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="4">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>17</v>
@@ -674,13 +668,13 @@
         <v>2</v>
       </c>
       <c r="B17" s="4">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -688,10 +682,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="4">
-        <v>421</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>18</v>
@@ -702,13 +696,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="4">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -735,10 +729,10 @@
         <v>30</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -746,10 +740,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="4">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>18</v>
@@ -760,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="4">
-        <v>30</v>
+        <v>356</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -774,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="B33" s="4">
-        <v>356</v>
+        <v>152</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -788,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="B35" s="4">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -818,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B41" s="4">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -832,10 +826,10 @@
         <v>15</v>
       </c>
       <c r="B43" s="4">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>18</v>
@@ -846,10 +840,10 @@
         <v>16</v>
       </c>
       <c r="B45" s="4">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>18</v>
@@ -860,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B47" s="4">
-        <v>356</v>
+        <v>101</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -877,10 +871,10 @@
         <v>30</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -904,13 +898,13 @@
         <v>21</v>
       </c>
       <c r="B55" s="4">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -918,10 +912,10 @@
         <v>22</v>
       </c>
       <c r="B57" s="4">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>18</v>
@@ -935,10 +929,10 @@
         <v>30</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -949,10 +943,10 @@
         <v>47</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -960,13 +954,13 @@
         <v>25</v>
       </c>
       <c r="B63" s="4">
-        <v>421</v>
+        <v>257</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -990,59 +984,59 @@
         <v>28</v>
       </c>
       <c r="B69" s="4">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B70" s="5">
-        <v>2700</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B71" s="5">
-        <v>82192</v>
+        <v>81266</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
       <c r="A75" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
       <c r="A76" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
       <c r="A77" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
       <c r="A79" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="20" customHeight="1">
       <c r="A81" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="20" customHeight="1">
       <c r="A83" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
